--- a/CO-adsorption/COads.xlsx
+++ b/CO-adsorption/COads.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="74">
   <si>
     <t>NPd</t>
   </si>
@@ -266,12 +266,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -286,8 +292,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,1203 +578,1211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="12.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>-2.4</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>0.54</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>-2.98</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>0.39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>-3.06</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>-2.58</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>0.17</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>-3.03</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.06</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>-2.2799999999999998</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>0.16</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>-2.36</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>0.1</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>-2.0299999999999998</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>0.16</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>-2.31</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>0.17</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>-2.29</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>0.12</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>-2.4300000000000002</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>0.1</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>-2.38</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>-2.31</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>0.123</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>-2.25</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>-2.29</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>0.123</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>17</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>-2.33</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>0.12</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>-2.33</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>0.113</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>-2.08</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>0.11600000000000001</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>-2</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>0.113</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>10</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>-1.71</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>-2.25</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>10</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>-1.92</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>-8.5000000000000006E-3</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>12</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>-2.25</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>-0.02</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>12</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>-2.44</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>-3.5999999999999999E-3</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>-1.29</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>0.12</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>14</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>-2.19</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>-0.02</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>-1.39</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>0.18</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>15</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>-2.4</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>-2.7E-2</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>15</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>-2.36</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>16</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>-2.4</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>16</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>-2.2400000000000002</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>-2.44</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>-0.01</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>17</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>-1.52</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>0.18</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>-2.67</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>0.31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>3</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>-2.94</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>3</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>-2.64</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>0.38</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>4</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>-2.33</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>4</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>-2.57</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>0.157</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>4</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>-1.81</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>0.23</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>4</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>-1.56</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>-0.06</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>5</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="1">
         <v>-2.2599999999999998</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F46" s="1" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>44</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>5</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>-2.1800000000000002</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>0.16</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>45</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>5</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>-1.58</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>0.13</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>46</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>5</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>-1.27</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>-0.13</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>47</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>-2.5099999999999998</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>4.7E-2</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>48</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>-2.27</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>0.105</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>49</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>-2.21</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>0.15</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>50</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>6</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>-2.39</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>0.2</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>51</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>-1.47</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>0.26</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>52</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>6</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>-2.33</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>0.215</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>53</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>6</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>-1.5</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>54</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>7</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>-1.82</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>-0.01</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>55</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>7</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>-2.23</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>0.14299999999999999</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>56</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>7</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>-1.82</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>0.23499999999999999</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>57</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>7</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>-2.2200000000000002</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>0.08</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>58</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>7</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>-1.8</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>-0.01</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>59</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>7</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>0.08</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>60</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>7</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>-1.24</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>0.23</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>61</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>9</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>-1.85</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>62</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>9</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>-2.2999999999999998</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>0.16</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>63</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>9</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>-2.38</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>0.105</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="1">
         <v>9</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="1">
         <v>-1.82</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="F67" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>65</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>-1.82</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>-1.0500000000000001E-2</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>49</v>
       </c>
     </row>
